--- a/Data/Output/RO125678.xlsx
+++ b/Data/Output/RO125678.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reppl\OneDrive\Área de Trabalho\100DaysOfPython\Projeto-CaseNubank-Python\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA906DA-E73F-4D20-9F05-A55EA3299E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FA909D-07CA-46DD-8C5C-357D9FFE2708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="2610" windowWidth="23865" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <t>RO125678</t>
   </si>
   <si>
-    <t>05/08/2025</t>
+    <t>06/08/2025</t>
   </si>
   <si>
     <t>Mikael Lopes</t>
@@ -101,7 +101,7 @@
     <t>TERMS</t>
   </si>
   <si>
-    <t>Please, Generate Invoices by 04/09/2025</t>
+    <t>Please, Generate Invoices by 05/09/2025</t>
   </si>
 </sst>
 </file>

--- a/Data/Output/RO125678.xlsx
+++ b/Data/Output/RO125678.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reppl\OneDrive\Área de Trabalho\100DaysOfPython\Projeto-CaseNubank-Python\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FA909D-07CA-46DD-8C5C-357D9FFE2708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC598B7-3195-48BB-B4EC-F53D7B937661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="2610" windowWidth="23865" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/Output/RO125678.xlsx
+++ b/Data/Output/RO125678.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reppl\OneDrive\Área de Trabalho\100DaysOfPython\Projeto-CaseNubank-Python\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC598B7-3195-48BB-B4EC-F53D7B937661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D4F31A-DE9D-4CCB-90B0-15DEC5C8E911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="2610" windowWidth="23865" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
